--- a/biology/Histoire de la zoologie et de la botanique/Ahmad_Parsa/Ahmad_Parsa.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ahmad_Parsa/Ahmad_Parsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ahmad Parsa, né en 1907 à Tafresh et mort le 4 juillet 1997[1], est un botaniste et universitaire iranien qui fut le premier Iranien à enseigner cette discipline dans son pays, à l'université de Téhéran, en étant spécialiste des spermatophytes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahmad Parsa, né en 1907 à Tafresh et mort le 4 juillet 1997, est un botaniste et universitaire iranien qui fut le premier Iranien à enseigner cette discipline dans son pays, à l'université de Téhéran, en étant spécialiste des spermatophytes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après avoir obtenu en France son doctorat ès sciences naturelles, il retourne dans son pays pour y étudier la flore et créer le premier herbier national du pays. Il devient professeur de botanique à l'université de Téhéran en 1933[2]. C'est en 1954 qu'il peut enfin ouvrir un musée d'histoire naturelle à Téhéran, avec un herbier. Il publie entre 1943 et 1959 une Flore d'Iran en huit volumes et y décrit 250 nouvelles espèces endémiques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir obtenu en France son doctorat ès sciences naturelles, il retourne dans son pays pour y étudier la flore et créer le premier herbier national du pays. Il devient professeur de botanique à l'université de Téhéran en 1933. C'est en 1954 qu'il peut enfin ouvrir un musée d'histoire naturelle à Téhéran, avec un herbier. Il publie entre 1943 et 1959 une Flore d'Iran en huit volumes et y décrit 250 nouvelles espèces endémiques.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduit en anglais : Flora of Iran, 8 volumes.</t>
         </is>
